--- a/NEW HR/PUNZALAN, LUCIANA.xlsx
+++ b/NEW HR/PUNZALAN, LUCIANA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>PERIOD</t>
   </si>
@@ -248,6 +248,21 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>2/15,20/2023</t>
+  </si>
+  <si>
+    <t>2/27,28/2023</t>
+  </si>
+  <si>
+    <t>3/1-3/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>4/3-5/2023</t>
   </si>
 </sst>
 </file>
@@ -957,7 +972,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K191" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K192" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1286,12 +1301,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K191"/>
+  <dimension ref="A2:K192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A64" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,7 +1474,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>66.076999999999998</v>
+        <v>67.326999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1469,7 +1484,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.933999999999997</v>
+        <v>54.183999999999997</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3004,7 +3019,9 @@
       <c r="A83" s="39">
         <v>44958</v>
       </c>
-      <c r="B83" s="21"/>
+      <c r="B83" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C83" s="14">
         <v>1.25</v>
       </c>
@@ -3015,14 +3032,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H83" s="38"/>
+      <c r="H83" s="38">
+        <v>2</v>
+      </c>
       <c r="I83" s="10"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
-      <c r="B84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>45</v>
+      </c>
       <c r="C84" s="14"/>
       <c r="D84" s="38"/>
       <c r="E84" s="10"/>
@@ -3031,30 +3054,46 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="38"/>
+      <c r="H84" s="38">
+        <v>2</v>
+      </c>
       <c r="I84" s="10"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="39">
+        <v>44986</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="38"/>
       <c r="E85" s="10"/>
       <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="38"/>
+      <c r="G85" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="38">
+        <v>3</v>
+      </c>
       <c r="I85" s="10"/>
       <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="K85" s="21" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
-      <c r="B86" s="21"/>
+      <c r="B86" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="C86" s="14"/>
       <c r="D86" s="38"/>
       <c r="E86" s="10"/>
@@ -3066,7 +3105,9 @@
       <c r="H86" s="38"/>
       <c r="I86" s="10"/>
       <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="K86" s="21" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
@@ -4733,20 +4774,36 @@
       <c r="K190" s="21"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
-      <c r="B191" s="16"/>
-      <c r="C191" s="41"/>
-      <c r="D191" s="42"/>
+      <c r="A191" s="39"/>
+      <c r="B191" s="21"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="38"/>
       <c r="E191" s="10"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H191" s="42"/>
+      <c r="F191" s="21"/>
+      <c r="G191" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H191" s="38"/>
       <c r="I191" s="10"/>
-      <c r="J191" s="13"/>
-      <c r="K191" s="16"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="21"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="40"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="41"/>
+      <c r="D192" s="42"/>
+      <c r="E192" s="10"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="42"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="13"/>
+      <c r="K192" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/NEW HR/PUNZALAN, LUCIANA.xlsx
+++ b/NEW HR/PUNZALAN, LUCIANA.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>4/3-5/2023</t>
+  </si>
+  <si>
+    <t>05/23-25/2023</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1309,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1477,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.326999999999998</v>
+        <v>69.826999999999998</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1484,7 +1487,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>54.183999999999997</v>
+        <v>51.683999999999997</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3110,15 +3113,19 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
+      <c r="A87" s="39">
+        <v>45017</v>
+      </c>
       <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="38"/>
       <c r="E87" s="10"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="38"/>
       <c r="I87" s="10"/>
@@ -3126,24 +3133,36 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
+      <c r="A88" s="39">
+        <v>45047</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="38"/>
       <c r="E88" s="10"/>
       <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="38"/>
+      <c r="G88" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H88" s="38">
+        <v>3</v>
+      </c>
       <c r="I88" s="10"/>
       <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="K88" s="21" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
-      <c r="B89" s="21"/>
+      <c r="B89" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C89" s="14"/>
       <c r="D89" s="38"/>
       <c r="E89" s="10"/>
@@ -3152,14 +3171,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H89" s="38"/>
+      <c r="H89" s="38">
+        <v>1</v>
+      </c>
       <c r="I89" s="10"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="K89" s="50">
+        <v>45072</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
-      <c r="B90" s="21"/>
+      <c r="B90" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="C90" s="14"/>
       <c r="D90" s="38"/>
       <c r="E90" s="10"/>
@@ -3168,10 +3193,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H90" s="38"/>
+      <c r="H90" s="38">
+        <v>1</v>
+      </c>
       <c r="I90" s="10"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="K90" s="50">
+        <v>45063</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>

--- a/NEW HR/PUNZALAN, LUCIANA.xlsx
+++ b/NEW HR/PUNZALAN, LUCIANA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9A8B8A-E006-4E11-B21C-DDC8E750DC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CC15C3-C2C6-4D5F-A52E-3261BA0DC4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>6/27,30/2023</t>
+  </si>
+  <si>
+    <t>6/20,26/2023</t>
   </si>
 </sst>
 </file>
@@ -1291,9 +1294,9 @@
   <dimension ref="A2:K192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A81" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="Q87" sqref="Q87"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1462,7 +1465,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>50.933999999999997</v>
+        <v>48.933999999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3181,7 +3184,9 @@
       <c r="A91" s="37">
         <v>45107</v>
       </c>
-      <c r="B91" s="20"/>
+      <c r="B91" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C91" s="13">
         <v>1.25</v>
       </c>
@@ -3192,10 +3197,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H91" s="36"/>
+      <c r="H91" s="36">
+        <v>2</v>
+      </c>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="37">
